--- a/ModelosEnriquecidos/Modelo enriquecido - Notificaciones.xlsx
+++ b/ModelosEnriquecidos/Modelo enriquecido - Notificaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos\Downloads\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Información\Downloads\DOO-working-group\ModelosEnriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4179E2-BE7E-42BF-BD93-D2253B60DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD317C38-C6B4-4D1D-B210-A65424211CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="105">
   <si>
     <t>Descripción</t>
   </si>
@@ -202,15 +202,6 @@
 dd/MM/YYYY HH:mm</t>
   </si>
   <si>
-    <t>Es el identificador unico del objeto Acceso el cual esta en el formato especial UUID</t>
-  </si>
-  <si>
-    <t>Unico</t>
-  </si>
-  <si>
-    <t>Atributo que es unico y no se debe repetir en ningun otro atributo</t>
-  </si>
-  <si>
     <t>Notificacion</t>
   </si>
   <si>
@@ -287,9 +278,6 @@
   </si>
   <si>
     <t>AccesoRelacionado</t>
-  </si>
-  <si>
-    <t>Es el identificador unico del objeto Tarea el cual esta en el formato especial UUID</t>
   </si>
   <si>
     <t>CorreoDestino</t>
@@ -308,17 +296,74 @@
     <t>NotificacionRelacionada</t>
   </si>
   <si>
-    <t>UnicaRelacion</t>
-  </si>
-  <si>
-    <t>Si tareaRelacionada no es vacia, AccesoRelacionado debe serlo y viceveresa</t>
+    <t>Es el identificador unico del objeto EnviarCorreo el cual esta en el formato especial UUID</t>
+  </si>
+  <si>
+    <t>ConfirmacionCorreoRelacionado</t>
+  </si>
+  <si>
+    <t>Es el nombre de la tarea de la cual se desea enviar una noitificación</t>
+  </si>
+  <si>
+    <t>ListaTareaRelacionada</t>
+  </si>
+  <si>
+    <t>Formato de nombre de tarea valido traido de Proyectos</t>
+  </si>
+  <si>
+    <t>Formato de nombre de ListaTareas valido traido de Tareas</t>
+  </si>
+  <si>
+    <t>Corresponde a una cadena de caracteres conformada por[A-Z][a-z][0-9]</t>
+  </si>
+  <si>
+    <t>Es el nombre de la lista de tareas en la que esta la tarea de la que se desea enviar una noitificación</t>
+  </si>
+  <si>
+    <t>Formato de nombre de un usuario valido traido de Usuarios</t>
+  </si>
+  <si>
+    <t>Es el nombre del usuario del cual se desea validar su correo electronico</t>
+  </si>
+  <si>
+    <t>Formato de nombre de un equipo valido traido de Accesos</t>
+  </si>
+  <si>
+    <t>Es el nombre del equipo del cual se desea enviar su notificación de acceso</t>
+  </si>
+  <si>
+    <t>NotificaciónTarea</t>
+  </si>
+  <si>
+    <t>Si la notificación enviada es por una tarea, los campos no pueden ser nulos</t>
   </si>
   <si>
     <t>TareaRelacionada
-AccesoRelacionado</t>
-  </si>
-  <si>
-    <t>Es el identificador unico del objeto EnviarCorreo el cual esta en el formato especial UUID</t>
+ListaTareaRelacionada</t>
+  </si>
+  <si>
+    <t>NotificaciónTareaObligatorio</t>
+  </si>
+  <si>
+    <t>NotificacionAcceso</t>
+  </si>
+  <si>
+    <t>Si AccesoRelacionado no es vacio, TareaRelacionado, ListaTareaRelacionado y ConfirmaciónCorreoRelacionado deben estar vacios</t>
+  </si>
+  <si>
+    <t>Si TareaRelacionada y ListaTareaRelacionado no es vacio, AccesoRelacionado y ConfirmaciónCorreoRelacionado deben estar vacios</t>
+  </si>
+  <si>
+    <t>TareaRelacionado
+ListaTareaRelacionado
+AccesoRelacionado
+ConfirmacionCorreoRelacionado</t>
+  </si>
+  <si>
+    <t>NotificaciónConfirmacion</t>
+  </si>
+  <si>
+    <t>Si ConfirmaciónCorreoRelacionado no es vacio, TareaRelacionado, ListaTareaRelacionado y AccesoRelacionado deben estar vacios</t>
   </si>
 </sst>
 </file>
@@ -449,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -614,13 +659,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -776,6 +847,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -854,19 +940,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,23 +987,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>395008</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>316567</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:rowOff>33057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F515DF97-2791-8BAA-9656-A6B2A41E9371}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C6EF37-76FE-A1F1-AEF3-7BC73512BCB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -937,8 +1026,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7776883" y="3036794"/>
-          <a:ext cx="4048125" cy="2133600"/>
+          <a:off x="8460442" y="3014382"/>
+          <a:ext cx="4048125" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,8 +1363,11 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J22"/>
+    </row>
+    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="S26"/>
     </row>
     <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35"/>
@@ -1293,7 +1385,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,10 +1413,10 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>39</v>
@@ -1335,10 +1427,10 @@
     </row>
     <row r="3" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>39</v>
@@ -1352,7 +1444,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>39</v>
@@ -1407,70 +1499,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="59" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa cada notificación en la aplicación</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1577,7 +1669,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
@@ -1588,8 +1680,8 @@
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>60</v>
+      <c r="B6" s="53" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1612,7 +1704,7 @@
     </row>
     <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
@@ -1627,11 +1719,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>46</v>
@@ -1649,7 +1741,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
@@ -1658,7 +1750,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>41</v>
@@ -1667,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="13"/>
@@ -1693,7 +1785,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
@@ -1702,7 +1794,7 @@
     </row>
     <row r="9" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>49</v>
@@ -1735,7 +1827,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="34"/>
       <c r="R9" s="23"/>
@@ -1744,10 +1836,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1769,11 +1861,11 @@
       <c r="T10" s="31"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1787,55 +1879,49 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>40</v>
-      </c>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60" t="s">
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60" t="s">
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60" t="s">
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="63"/>
+      <c r="R16" s="68"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -1848,12 +1934,12 @@
       <c r="J17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -1868,88 +1954,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="46"/>
       <c r="H19" s="44"/>
       <c r="I19" s="45"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="42"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
       <c r="J20" s="43"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="48"/>
       <c r="H21" s="49"/>
       <c r="I21" s="47"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -1994,6 +2080,7 @@
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
     <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
     <hyperlink ref="B6" location="'Objeto Dominio TipoNotifacion'!A1" display="TipoNotifación" xr:uid="{2A25B0C1-50D8-4B14-AC87-35C147BE279C}"/>
+    <hyperlink ref="B10" location="'Objeto Dominio EnviarCorreo'!A1" display="EnviarCorreo" xr:uid="{9E1359AE-DA48-4608-A631-00B94E935C4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2006,7 +2093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:C11"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,70 +2123,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="59" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>TipoNotificacion</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que contiene el tipo de notificación enviada, es decir, la razon de esta</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2206,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
@@ -2230,11 +2317,11 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>46</v>
@@ -2252,7 +2339,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
@@ -2276,11 +2363,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>46</v>
@@ -2298,7 +2385,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
@@ -2307,11 +2394,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2324,56 +2411,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>40</v>
-      </c>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60" t="s">
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60" t="s">
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60" t="s">
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="63"/>
+      <c r="R13" s="68"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -2386,12 +2467,12 @@
       <c r="J14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2406,88 +2487,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="46"/>
       <c r="H16" s="44"/>
       <c r="I16" s="45"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="42"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="48"/>
       <c r="H18" s="49"/>
       <c r="I18" s="47"/>
       <c r="J18" s="48"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -2538,22 +2619,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2571,70 +2652,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="59" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>EnviarCorreo</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="60" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que permite la recepción del motivo de solicitud y a quien se debe enviar</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2686,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A18</f>
+        <f>A22</f>
         <v>Reponsabilidad 1</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A19</f>
+        <f>A23</f>
         <v>Reponsabilidad 2</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A20</f>
+        <f>A24</f>
         <v>Reponsabilidad 3</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A21</f>
+        <f>A25</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
@@ -2741,38 +2822,38 @@
         <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>46</v>
@@ -2786,39 +2867,39 @@
       <c r="O6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="83" t="s">
-        <v>81</v>
+      <c r="P6" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>46</v>
@@ -2832,17 +2913,17 @@
       <c r="O7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="83" t="s">
-        <v>52</v>
+      <c r="P7" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>82</v>
+    <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>41</v>
@@ -2851,26 +2932,26 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="7" t="s">
-        <v>83</v>
+      <c r="H8" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>46</v>
@@ -2878,279 +2959,393 @@
       <c r="O8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>85</v>
+      <c r="P8" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
       <c r="S8" s="28"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5">
+        <v>32</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
+      <c r="J9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>94</v>
+      </c>
       <c r="Q9" s="34"/>
       <c r="R9" s="23"/>
       <c r="S9" s="28"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="31"/>
+    </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="15" spans="1:20" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60" t="s">
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60" t="s">
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60" t="s">
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60" t="s">
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="63"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="19" t="s">
+      <c r="R20" s="68"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K21" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="27"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="67"/>
       <c r="L21" s="67"/>
       <c r="M21" s="67"/>
       <c r="N21" s="67"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="O21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="26"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
+    <hyperlink ref="H25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
-    <hyperlink ref="B9" location="'Objeto Dominio Notificacion'!A1" display="Notificacion" xr:uid="{039D4651-D132-4F14-835C-9173A7B087CC}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="B11" location="'Objeto Dominio Notificacion'!A1" display="Notificacion" xr:uid="{039D4651-D132-4F14-835C-9173A7B087CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
